--- a/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(H)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(H).xlsx
+++ b/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(H)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(H).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,94 +525,276 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hac
-Hackelia
-Hackelia deflexa
-Hae
-Haemanthus - fam. Amaranthacées
-Haemanthus multiflorus - Ail rouge
-Hal
-Halenia
-Halenia deflexa
-Ham
-Hamamelis - Hamamélidacées (arbuste)
+          <t>Hac</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hackelia
+Hackelia deflexa</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ha</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Haemanthus - fam. Amaranthacées
+Haemanthus multiflorus - Ail rouge</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ha</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hal</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Halenia
+Halenia deflexa</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ha</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ham</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hamamelis - Hamamélidacées (arbuste)
 Hamamelis intermedia - Hamamélis
 Hamamelis mollis	- Hamamélis
-Hamamelis virginiana - Hamamélis de Virginie
-Har
-Haraella - fam. Orchidacées
+Hamamelis virginiana - Hamamélis de Virginie</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ha</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Har</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Haraella - fam. Orchidacées
 Haraella odorata
 Harleyodendron
 Harpagophytum
 Harpagophytum procumbens - La griffe du diable
-Harpalyce
-Haw
-Haworthia (plante grasse)
+Harpalyce</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ha</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Haw</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haworthia (plante grasse)
 Haworthia attenuata
 Haworthia attenuata caespitosa
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>He</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Écozone paléarctique: plantes à graines par nom scientifique (HE)
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Hi</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hib
-Hibanobambusa - fam. Poacées (bambou)
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Hib</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hibanobambusa - fam. Poacées (bambou)
 Hibanobambusa tranquillans - Bambou
 Hibiscus - fam. Malvacées (arbuste)
 Hibiscus cannabinus ou Hibiscus sabdarifa - Groseille pays
@@ -608,9 +802,43 @@
 Hibiscus moscheutos
 Hibiscus rosa-sinensis - Hibiscus rose de Chine ou « Rose de Chine »
 Hibiscus syriacus ou Althaea frutex - Hibiscus de Syrie ou « Althea de Syrie » ou « Ketmie de Syrie »
-Hibiscus sino-syriacus
-Hie
-Hieracium - fam. Cichoriacées ou Astéracées
+Hibiscus sino-syriacus</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Hie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Hieracium - fam. Cichoriacées ou Astéracées
 Hieracium alpinum - Épervière des Alpes
 Hieracium aurantiacium ou Pilosella aurantiaca - Épervière orangée
 Hieracium canadense - Épervière du Canada
@@ -625,9 +853,43 @@
 Hierochloe alpina - Hiérochloé alpine
 Hierochloe odorata - Hiérochloé odorante ou « Foin d'odeur » ou « Herbe aux bisons »
 Hierochloe orthantha - Hierochloe
-Hierochloe pauciflora - Hiérochloé pauciflore
-Hip
-Hippeastrum - fam. Amaryllidacées
+Hierochloe pauciflora - Hiérochloé pauciflore</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Hip</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hippeastrum - fam. Amaryllidacées
 Hippeastrum cultivars - Amaryllis de l'horticulteur (Appellation par abus de langage)
 Hippeastrum vittatum - Amaryllis de l'horticulteur (Appellation par abus de langage)
 Hippocrepis - fam. Fabacées
@@ -651,145 +913,500 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Ho</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hol
-Holcus
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Hol</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Holcus
 Holcus lanatus
-Holocalyx
-Hon
-Honckenya
-Honckenya peploides
-Hor
-Hordeum - fam. Poécées
+Holocalyx</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Ho</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Hon</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Honckenya
+Honckenya peploides</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Ho</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Hor</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Hordeum - fam. Poécées
 Hordeum brachyantherum - Orge à anthères courtes
 Hordeum jubatum - Orge agréable ou « Queue d'écureuil »
 Hordeum montanense - Orge de montagne
-Hordeum vulgare - Orge vulgaire
-Hos
-Hosta
+Hordeum vulgare - Orge vulgaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Ho</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Hos</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Hosta
 Hosta plantaginea
-Hosta sieboldiana - Hosta panaché
-Hou
-Houstonia - fam. Rubiacées
+Hosta sieboldiana - Hosta panaché</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Ho</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Hou</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Houstonia - fam. Rubiacées
 Houstonia caerulea - Houstonie
 Houttuynia - fam Saururaceae - (plante vivace)
 Houttuynia chamaleon
-Houttuynia cordata - Plante caméléon
-How
-Howea - fam. Arécacées (palmier)
+Houttuynia cordata - Plante caméléon</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Ho</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>How</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Howea - fam. Arécacées (palmier)
 Howea forsteriana - Palmier
-Howea forsteriana Kentia - Palmier d'appartement
-Hoy
-Hoya
+Howea forsteriana Kentia - Palmier d'appartement</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Ho</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Hoy</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hoya
 Hoya carnosa - Fleur de porcelaine
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Hu</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hum
-Humeca
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Hum</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Humeca
 Humeca elegans - Humeca élégant
 Humulus - fam. Cannabinacées (plante grimpante)
 Humulus japonicus - Houblon du Japon
-Humulus lupulus - Houblon
-Hun
-Hunnemannia
-Hunnemannia fumarifolia - Hummannie
-Hup
-Huperzia
-Huperzia selago
-Hur
-Hura - fam. Euphorbiacées (arbre)
+Humulus lupulus - Houblon</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Hu</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Hun</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Hunnemannia
+Hunnemannia fumarifolia - Hummannie</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Hu</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Hup</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Huperzia
+Huperzia selago</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Hu</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Hur</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hura - fam. Euphorbiacées (arbre)
 Hura crepitans - Bois diable
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Hy</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Hya
-Hyacinthoides
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Hya</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Hyacinthoides
 Hyacinthoides italica - Scille d'Italie
 Hyacinthus - fam. Liliacées
 Hyancinthus candicans ou Galtonia candicans - Jacinthe du Cap
-Hyacinthus orientalis - Jacinthe orientale
-Hyd
-Hydrangea - fam. Hydrangeacées (arbuste)
+Hyacinthus orientalis - Jacinthe orientale</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Hy</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Hyd</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Hydrangea - fam. Hydrangeacées (arbuste)
 Hydrangea arborescens - Hortensia arborescente ou « Hydrangée arborescente »
 Hydrangea aspera - Hortensia
 Hydrangea involucrata - Hortensia
@@ -801,21 +1418,123 @@
 Hydrocharis - Hydrocharitacées
 Hydrocharis morsus-ranae - Morène ou petit nénuphar
 Hydrophyllum - fam. Hydrophyllacées
-Hydrophyllum virginianum - Hydrophylle
-Hym
-Hymenaea
+Hydrophyllum virginianum - Hydrophylle</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Hy</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Hym</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Hymenaea
 Hymenocallis - fam. Amaryllidacées
 Hymenocallis caribaea - Lys araignée
-Hymenolobium
-Hyo
-Hyophorbe - fam. Arécacées (Palmier)
+Hymenolobium</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Hy</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Hyo</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Hyophorbe - fam. Arécacées (Palmier)
 Hyophorbe lagenicaulis - Palmier
 Hyophorbe vershaffeltii - Palmier de Vershaffelt
 Hyoscyamus
 Hyoscyamus albus - Jusquiame blanche
-Hyoscyamus niger - Jusquiame noire
-Hyp
-Hypecoum
+Hyoscyamus niger - Jusquiame noire</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Hy</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Hyp</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Hypecoum
 Hypecoum procumbens - Hypecoum couché
 Hypericum - fam. Clusiacées
 Hypericum calycinum - Millepertuis à grandes fleurs
@@ -828,9 +1547,43 @@
 Hypocyrta
 Hypocyrta glabra - Hypocirta
 Hypoestes
-Hypoestes phyllostachya - Hypoestes
-Hys
-Hyssopus
+Hypoestes phyllostachya - Hypoestes</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Hy</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Hys</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Hyssopus
 Hyssopus officinalis
 Hystrix
 Hystrix patula - Hystrix étalé</t>
